--- a/code/outputs/prompt-analysis.xlsx
+++ b/code/outputs/prompt-analysis.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-12-15 01:44:40</t>
+          <t>2024-12-15 14:55:14</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-12-15 01:44:40</t>
+          <t>2024-12-15 14:55:14</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-12-15 01:44:40</t>
+          <t>2024-12-15 14:55:14</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-12-15 01:44:40</t>
+          <t>2024-12-15 14:55:14</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-12-15 01:44:40</t>
+          <t>2024-12-15 14:55:14</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-12-15 01:44:40</t>
+          <t>2024-12-15 14:55:14</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -920,7 +920,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-12-15 01:44:40</t>
+          <t>2024-12-15 14:55:14</t>
         </is>
       </c>
     </row>

--- a/code/outputs/prompt-analysis.xlsx
+++ b/code/outputs/prompt-analysis.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:55:14</t>
+          <t>2024-12-22 01:04:04</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:55:14</t>
+          <t>2024-12-22 01:04:04</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-12-15 14:55:14</t>
+          <t>2024-12-22 01:04:04</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-12-15 14:55:14</t>
+          <t>2024-12-22 01:04:04</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-12-15 14:55:14</t>
+          <t>2024-12-22 01:04:04</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:55:14</t>
+          <t>2024-12-22 01:04:04</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -920,7 +920,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:55:14</t>
+          <t>2024-12-22 01:04:04</t>
         </is>
       </c>
     </row>
